--- a/output/SAFRA_27249912000158.xlsx
+++ b/output/SAFRA_27249912000158.xlsx
@@ -845,10 +845,10 @@
         <v>44165</v>
       </c>
       <c r="B42">
-        <v>0.290664239097733</v>
+        <v>0.2895745333498396</v>
       </c>
       <c r="C42">
-        <v>0.008762015640408904</v>
+        <v>0.007910319487838491</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFRA_27249912000158.xlsx
+++ b/output/SAFRA_27249912000158.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFRA GALILEO PB FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,469 +383,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42947</v>
       </c>
       <c r="B2">
-        <v>0.0315522844637266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42978</v>
       </c>
       <c r="B3">
-        <v>0.05505641872512523</v>
-      </c>
-      <c r="C3">
         <v>0.02278520886958013</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43008</v>
       </c>
       <c r="B4">
-        <v>0.06642987354875118</v>
-      </c>
-      <c r="C4">
         <v>0.01077994941480864</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43039</v>
       </c>
       <c r="B5">
-        <v>0.08138737471921709</v>
-      </c>
-      <c r="C5">
         <v>0.01402577097797519</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43069</v>
       </c>
       <c r="B6">
-        <v>0.07213593820883446</v>
-      </c>
-      <c r="C6">
         <v>-0.008555154911795371</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43100</v>
       </c>
       <c r="B7">
-        <v>0.09593868144740614</v>
-      </c>
-      <c r="C7">
         <v>0.02220123623347403</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43131</v>
       </c>
       <c r="B8">
-        <v>0.1521858299275523</v>
-      </c>
-      <c r="C8">
         <v>0.05132326236159535</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43159</v>
       </c>
       <c r="B9">
-        <v>0.1478180051585065</v>
-      </c>
-      <c r="C9">
         <v>-0.003790903043236038</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43190</v>
       </c>
       <c r="B10">
-        <v>0.1464765289079255</v>
-      </c>
-      <c r="C10">
         <v>-0.001168718598725693</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43220</v>
       </c>
       <c r="B11">
-        <v>0.1518457851083572</v>
-      </c>
-      <c r="C11">
         <v>0.004683267441633721</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43251</v>
       </c>
       <c r="B12">
-        <v>0.07840588371000146</v>
-      </c>
-      <c r="C12">
         <v>-0.06375844956662069</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43281</v>
       </c>
       <c r="B13">
-        <v>0.06908223201236052</v>
-      </c>
-      <c r="C13">
         <v>-0.008645772281550501</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43312</v>
       </c>
       <c r="B14">
-        <v>0.09010187047174578</v>
-      </c>
-      <c r="C14">
         <v>0.01966138602810696</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43343</v>
       </c>
       <c r="B15">
-        <v>0.09996304755993224</v>
-      </c>
-      <c r="C15">
         <v>0.009046106015687227</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43373</v>
       </c>
       <c r="B16">
-        <v>0.1129733799614097</v>
-      </c>
-      <c r="C16">
         <v>0.01182797224901178</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43404</v>
       </c>
       <c r="B17">
-        <v>0.1322116869787204</v>
-      </c>
-      <c r="C17">
         <v>0.01728550508366866</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43434</v>
       </c>
       <c r="B18">
-        <v>0.1454891521508459</v>
-      </c>
-      <c r="C18">
         <v>0.01172701653306207</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43465</v>
       </c>
       <c r="B19">
-        <v>0.1507468844454067</v>
-      </c>
-      <c r="C19">
         <v>0.004589945076903135</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43496</v>
       </c>
       <c r="B20">
-        <v>0.1725088106756603</v>
-      </c>
-      <c r="C20">
         <v>0.01891113199992844</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43524</v>
       </c>
       <c r="B21">
-        <v>0.1639080834009436</v>
-      </c>
-      <c r="C21">
         <v>-0.007335319953596264</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43555</v>
       </c>
       <c r="B22">
-        <v>0.1555657507261086</v>
-      </c>
-      <c r="C22">
         <v>-0.007167518461130284</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43585</v>
       </c>
       <c r="B23">
-        <v>0.1600916403392298</v>
-      </c>
-      <c r="C23">
         <v>0.003916600686959981</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43616</v>
       </c>
       <c r="B24">
-        <v>0.1754655722440117</v>
-      </c>
-      <c r="C24">
         <v>0.01325234263414421</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43646</v>
       </c>
       <c r="B25">
-        <v>0.1830270392202304</v>
-      </c>
-      <c r="C25">
         <v>0.006432742187236995</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43677</v>
       </c>
       <c r="B26">
-        <v>0.1836000836567624</v>
-      </c>
-      <c r="C26">
         <v>0.00048438828322106</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43708</v>
       </c>
       <c r="B27">
-        <v>0.1952123557150007</v>
-      </c>
-      <c r="C27">
         <v>0.009810976037076591</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43738</v>
       </c>
       <c r="B28">
-        <v>0.2104849608564401</v>
-      </c>
-      <c r="C28">
         <v>0.0127781519898218</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43769</v>
       </c>
       <c r="B29">
-        <v>0.2252918903991599</v>
-      </c>
-      <c r="C29">
         <v>0.01223222924822109</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43799</v>
       </c>
       <c r="B30">
-        <v>0.2226853290330537</v>
-      </c>
-      <c r="C30">
         <v>-0.002127298308696846</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43830</v>
       </c>
       <c r="B31">
-        <v>0.2435478787761609</v>
-      </c>
-      <c r="C31">
         <v>0.01706289365523506</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43861</v>
       </c>
       <c r="B32">
-        <v>0.2579573781470439</v>
-      </c>
-      <c r="C32">
         <v>0.01158741019691512</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43890</v>
       </c>
       <c r="B33">
-        <v>0.252006683855007</v>
-      </c>
-      <c r="C33">
         <v>-0.004730441901618421</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43921</v>
       </c>
       <c r="B34">
-        <v>0.254030241149084</v>
-      </c>
-      <c r="C34">
         <v>0.001616251191124851</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43951</v>
       </c>
       <c r="B35">
-        <v>0.2578273574023968</v>
-      </c>
-      <c r="C35">
         <v>0.003027930370988141</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43982</v>
       </c>
       <c r="B36">
-        <v>0.2743010094998846</v>
-      </c>
-      <c r="C36">
         <v>0.013096910319639</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44012</v>
       </c>
       <c r="B37">
-        <v>0.2826183778367919</v>
-      </c>
-      <c r="C37">
         <v>0.006527004432156591</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44043</v>
       </c>
       <c r="B38">
-        <v>0.3038824945500227</v>
-      </c>
-      <c r="C38">
         <v>0.01657867771167743</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44074</v>
       </c>
       <c r="B39">
-        <v>0.2984144902340136</v>
-      </c>
-      <c r="C39">
         <v>-0.004193632738275332</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>44104</v>
       </c>
       <c r="B40">
-        <v>0.2771636608646812</v>
-      </c>
-      <c r="C40">
         <v>-0.01636675308937929</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44135</v>
       </c>
       <c r="B41">
-        <v>0.2794536462382156</v>
-      </c>
-      <c r="C41">
         <v>0.001793024217416228</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44165</v>
       </c>
       <c r="B42">
-        <v>0.2895745333498396</v>
-      </c>
-      <c r="C42">
-        <v>0.007910319487838491</v>
+        <v>0.003753383291502876</v>
       </c>
     </row>
   </sheetData>
